--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="8100"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -158,16 +158,7 @@
     <t>A1</t>
   </si>
   <si>
-    <t>打字</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
     <t>主角移动</t>
-  </si>
-  <si>
-    <t>A17</t>
   </si>
   <si>
     <t>主角受击</t>
@@ -1136,7 +1127,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1376,31 +1367,25 @@
       <c r="H14" t="s">
         <v>42</v>
       </c>
-      <c r="I14" t="s">
-        <v>43</v>
-      </c>
+      <c r="I14"/>
       <c r="J14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="8:10">
       <c r="H15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I15"/>
       <c r="J15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="8:10">
       <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I16"/>
       <c r="J16">
         <v>3</v>
       </c>

--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -162,6 +162,45 @@
   </si>
   <si>
     <t>主角受击</t>
+  </si>
+  <si>
+    <t>主角休息</t>
+  </si>
+  <si>
+    <t>使用物品</t>
+  </si>
+  <si>
+    <t>关闭Esc界面</t>
+  </si>
+  <si>
+    <t>切换Esc界面栏</t>
+  </si>
+  <si>
+    <t>切换物品位置</t>
+  </si>
+  <si>
+    <t>存档成功</t>
+  </si>
+  <si>
+    <t>开门</t>
+  </si>
+  <si>
+    <t>打开Esc界面</t>
+  </si>
+  <si>
+    <t>普通点击</t>
+  </si>
+  <si>
+    <t>火堆界面</t>
+  </si>
+  <si>
+    <t>行走</t>
+  </si>
+  <si>
+    <t>跳跃</t>
+  </si>
+  <si>
+    <t>采摘</t>
   </si>
 </sst>
 </file>
@@ -1124,13 +1163,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
@@ -1390,6 +1429,110 @@
         <v>3</v>
       </c>
     </row>
+    <row r="17" spans="8:10">
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10">
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10">
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10">
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10">
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10">
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10">
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10">
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10">
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10">
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="8:10">
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10">
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>采摘</t>
+  </si>
+  <si>
+    <t>BGM</t>
   </si>
 </sst>
 </file>
@@ -1163,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1533,6 +1536,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="30" spans="8:10">
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
